--- a/code/First_Result_Overview.xlsx
+++ b/code/First_Result_Overview.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,251 +450,2939 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" s="2" t="n">
+        <v>34846</v>
       </c>
       <c r="B2" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>34847</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>34848</v>
+      </c>
+      <c r="B4" t="n">
         <v>23.5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>34849</v>
+      </c>
+      <c r="B5" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>34850</v>
+      </c>
+      <c r="B6" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>34851</v>
+      </c>
+      <c r="B7" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>34852</v>
+      </c>
+      <c r="B8" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>34853</v>
+      </c>
+      <c r="B9" t="n">
         <v>23.5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>34854</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>34855</v>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>34856</v>
+      </c>
+      <c r="B12" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>34857</v>
+      </c>
+      <c r="B13" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>34858</v>
+      </c>
+      <c r="B14" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>34859</v>
+      </c>
+      <c r="B15" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>34860</v>
+      </c>
+      <c r="B16" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>34861</v>
+      </c>
+      <c r="B17" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>34862</v>
+      </c>
+      <c r="B18" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>34863</v>
+      </c>
+      <c r="B19" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>34864</v>
+      </c>
+      <c r="B20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>34865</v>
+      </c>
+      <c r="B21" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>34866</v>
+      </c>
+      <c r="B22" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>34867</v>
+      </c>
+      <c r="B23" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n">
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>34868</v>
+      </c>
+      <c r="B24" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n">
-        <v>15.5</v>
-      </c>
-    </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
+      <c r="A25" s="2" t="n">
+        <v>34869</v>
       </c>
       <c r="B25" t="n">
         <v>15.5</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="2" t="n">
+        <v>34870</v>
+      </c>
+      <c r="B26" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>34871</v>
+      </c>
+      <c r="B27" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>34872</v>
+      </c>
+      <c r="B28" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>34873</v>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>34874</v>
+      </c>
+      <c r="B30" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>34875</v>
+      </c>
+      <c r="B31" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>34876</v>
+      </c>
+      <c r="B32" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>34877</v>
+      </c>
+      <c r="B33" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>34878</v>
+      </c>
+      <c r="B34" t="n">
         <v>25</v>
       </c>
-      <c r="B26" t="n">
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>34879</v>
+      </c>
+      <c r="B35" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34880</v>
+      </c>
+      <c r="B36" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>34881</v>
+      </c>
+      <c r="B37" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>34882</v>
+      </c>
+      <c r="B38" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>34883</v>
+      </c>
+      <c r="B39" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>34884</v>
+      </c>
+      <c r="B40" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>34885</v>
+      </c>
+      <c r="B41" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>34886</v>
+      </c>
+      <c r="B42" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>34887</v>
+      </c>
+      <c r="B43" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>34888</v>
+      </c>
+      <c r="B44" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>34889</v>
+      </c>
+      <c r="B45" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>34890</v>
+      </c>
+      <c r="B46" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>34891</v>
+      </c>
+      <c r="B47" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>34892</v>
+      </c>
+      <c r="B48" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>34893</v>
+      </c>
+      <c r="B49" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>34894</v>
+      </c>
+      <c r="B50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>34895</v>
+      </c>
+      <c r="B51" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>34896</v>
+      </c>
+      <c r="B52" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>34897</v>
+      </c>
+      <c r="B53" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>34898</v>
+      </c>
+      <c r="B54" t="n">
         <v>24.5</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>34899</v>
+      </c>
+      <c r="B55" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>34900</v>
+      </c>
+      <c r="B56" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>34901</v>
+      </c>
+      <c r="B57" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>34902</v>
+      </c>
+      <c r="B58" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>34903</v>
+      </c>
+      <c r="B59" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>34904</v>
+      </c>
+      <c r="B60" t="n">
         <v>26</v>
       </c>
-      <c r="B27" t="n">
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>34905</v>
+      </c>
+      <c r="B61" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>34906</v>
+      </c>
+      <c r="B62" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>34907</v>
+      </c>
+      <c r="B63" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>34908</v>
+      </c>
+      <c r="B64" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>34909</v>
+      </c>
+      <c r="B65" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>34910</v>
+      </c>
+      <c r="B66" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>34911</v>
+      </c>
+      <c r="B67" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>34912</v>
+      </c>
+      <c r="B68" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>34913</v>
+      </c>
+      <c r="B69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>34914</v>
+      </c>
+      <c r="B70" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>34915</v>
+      </c>
+      <c r="B71" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>34916</v>
+      </c>
+      <c r="B72" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>34917</v>
+      </c>
+      <c r="B73" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>34918</v>
+      </c>
+      <c r="B74" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>34919</v>
+      </c>
+      <c r="B75" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>34920</v>
+      </c>
+      <c r="B76" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>34921</v>
+      </c>
+      <c r="B77" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>34922</v>
+      </c>
+      <c r="B78" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>34923</v>
+      </c>
+      <c r="B79" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>34924</v>
+      </c>
+      <c r="B80" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>34925</v>
+      </c>
+      <c r="B81" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>34926</v>
+      </c>
+      <c r="B82" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>34927</v>
+      </c>
+      <c r="B83" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>34928</v>
+      </c>
+      <c r="B84" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>34929</v>
+      </c>
+      <c r="B85" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>34930</v>
+      </c>
+      <c r="B86" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>34931</v>
+      </c>
+      <c r="B87" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>34932</v>
+      </c>
+      <c r="B88" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>34933</v>
+      </c>
+      <c r="B89" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>34934</v>
+      </c>
+      <c r="B90" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>34935</v>
+      </c>
+      <c r="B91" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>34936</v>
+      </c>
+      <c r="B92" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>34937</v>
+      </c>
+      <c r="B93" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>34938</v>
+      </c>
+      <c r="B94" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>34939</v>
+      </c>
+      <c r="B95" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>34940</v>
+      </c>
+      <c r="B96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>34941</v>
+      </c>
+      <c r="B97" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>34942</v>
+      </c>
+      <c r="B98" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>34943</v>
+      </c>
+      <c r="B99" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>34944</v>
+      </c>
+      <c r="B100" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>34945</v>
+      </c>
+      <c r="B101" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>34946</v>
+      </c>
+      <c r="B102" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>34947</v>
+      </c>
+      <c r="B103" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>34948</v>
+      </c>
+      <c r="B104" t="n">
         <v>27</v>
       </c>
-      <c r="B28" t="n">
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>34949</v>
+      </c>
+      <c r="B105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>34950</v>
+      </c>
+      <c r="B106" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>34951</v>
+      </c>
+      <c r="B107" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>34952</v>
+      </c>
+      <c r="B108" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>34953</v>
+      </c>
+      <c r="B109" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>34954</v>
+      </c>
+      <c r="B110" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>34955</v>
+      </c>
+      <c r="B111" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>34956</v>
+      </c>
+      <c r="B112" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>34957</v>
+      </c>
+      <c r="B113" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>34958</v>
+      </c>
+      <c r="B114" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>34959</v>
+      </c>
+      <c r="B115" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>34960</v>
+      </c>
+      <c r="B116" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>34961</v>
+      </c>
+      <c r="B117" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>34962</v>
+      </c>
+      <c r="B118" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>34963</v>
+      </c>
+      <c r="B119" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>34964</v>
+      </c>
+      <c r="B120" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>34965</v>
+      </c>
+      <c r="B121" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>34966</v>
+      </c>
+      <c r="B122" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>34967</v>
+      </c>
+      <c r="B123" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>34968</v>
+      </c>
+      <c r="B124" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>34969</v>
+      </c>
+      <c r="B125" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>34970</v>
+      </c>
+      <c r="B126" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>34971</v>
+      </c>
+      <c r="B127" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>34972</v>
+      </c>
+      <c r="B128" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>34973</v>
+      </c>
+      <c r="B129" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>34974</v>
+      </c>
+      <c r="B130" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>34975</v>
+      </c>
+      <c r="B131" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>34976</v>
+      </c>
+      <c r="B132" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>34977</v>
+      </c>
+      <c r="B133" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>34978</v>
+      </c>
+      <c r="B134" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>34979</v>
+      </c>
+      <c r="B135" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>34980</v>
+      </c>
+      <c r="B136" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>34981</v>
+      </c>
+      <c r="B137" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>34982</v>
+      </c>
+      <c r="B138" t="n">
         <v>28</v>
       </c>
-      <c r="B29" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>34983</v>
+      </c>
+      <c r="B139" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>34984</v>
+      </c>
+      <c r="B140" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>34985</v>
+      </c>
+      <c r="B141" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>34986</v>
+      </c>
+      <c r="B142" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>34987</v>
+      </c>
+      <c r="B143" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>34988</v>
+      </c>
+      <c r="B144" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>34989</v>
+      </c>
+      <c r="B145" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>34990</v>
+      </c>
+      <c r="B146" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>34991</v>
+      </c>
+      <c r="B147" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>34992</v>
+      </c>
+      <c r="B148" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>34993</v>
+      </c>
+      <c r="B149" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>34994</v>
+      </c>
+      <c r="B150" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>34995</v>
+      </c>
+      <c r="B151" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>34996</v>
+      </c>
+      <c r="B152" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>34997</v>
+      </c>
+      <c r="B153" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>34998</v>
+      </c>
+      <c r="B154" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>34999</v>
+      </c>
+      <c r="B155" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>35000</v>
+      </c>
+      <c r="B156" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>35001</v>
+      </c>
+      <c r="B157" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>35002</v>
+      </c>
+      <c r="B158" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>35003</v>
+      </c>
+      <c r="B159" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>35004</v>
+      </c>
+      <c r="B160" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>35005</v>
+      </c>
+      <c r="B161" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>35006</v>
+      </c>
+      <c r="B162" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>35007</v>
+      </c>
+      <c r="B163" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>35008</v>
+      </c>
+      <c r="B164" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>35009</v>
+      </c>
+      <c r="B165" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>35010</v>
+      </c>
+      <c r="B166" t="n">
         <v>29</v>
       </c>
-      <c r="B30" t="n">
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>35011</v>
+      </c>
+      <c r="B167" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>35012</v>
+      </c>
+      <c r="B168" t="n">
         <v>23.5</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" t="n">
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>35013</v>
+      </c>
+      <c r="B169" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" t="n">
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>35014</v>
+      </c>
+      <c r="B170" t="n">
         <v>26</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>35015</v>
+      </c>
+      <c r="B171" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>35016</v>
+      </c>
+      <c r="B172" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>35017</v>
+      </c>
+      <c r="B173" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>35018</v>
+      </c>
+      <c r="B174" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>35019</v>
+      </c>
+      <c r="B175" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>35020</v>
+      </c>
+      <c r="B176" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>35021</v>
+      </c>
+      <c r="B177" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>35022</v>
+      </c>
+      <c r="B178" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>35023</v>
+      </c>
+      <c r="B179" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>35024</v>
+      </c>
+      <c r="B180" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>35025</v>
+      </c>
+      <c r="B181" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>35026</v>
+      </c>
+      <c r="B182" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>35027</v>
+      </c>
+      <c r="B183" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>35028</v>
+      </c>
+      <c r="B184" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>35029</v>
+      </c>
+      <c r="B185" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>35030</v>
+      </c>
+      <c r="B186" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>35031</v>
+      </c>
+      <c r="B187" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>35032</v>
+      </c>
+      <c r="B188" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>35033</v>
+      </c>
+      <c r="B189" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>35034</v>
+      </c>
+      <c r="B190" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>35035</v>
+      </c>
+      <c r="B191" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>35036</v>
+      </c>
+      <c r="B192" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>35037</v>
+      </c>
+      <c r="B193" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>35038</v>
+      </c>
+      <c r="B194" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>35039</v>
+      </c>
+      <c r="B195" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>35040</v>
+      </c>
+      <c r="B196" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>35041</v>
+      </c>
+      <c r="B197" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>35042</v>
+      </c>
+      <c r="B198" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>35043</v>
+      </c>
+      <c r="B199" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>35044</v>
+      </c>
+      <c r="B200" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>35045</v>
+      </c>
+      <c r="B201" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>35046</v>
+      </c>
+      <c r="B202" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>35047</v>
+      </c>
+      <c r="B203" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>35048</v>
+      </c>
+      <c r="B204" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>35049</v>
+      </c>
+      <c r="B205" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>35050</v>
+      </c>
+      <c r="B206" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>35051</v>
+      </c>
+      <c r="B207" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>35052</v>
+      </c>
+      <c r="B208" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>35053</v>
+      </c>
+      <c r="B209" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>35054</v>
+      </c>
+      <c r="B210" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>35055</v>
+      </c>
+      <c r="B211" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>35056</v>
+      </c>
+      <c r="B212" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>35057</v>
+      </c>
+      <c r="B213" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>35058</v>
+      </c>
+      <c r="B214" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>35059</v>
+      </c>
+      <c r="B215" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>35060</v>
+      </c>
+      <c r="B216" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>35061</v>
+      </c>
+      <c r="B217" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>35062</v>
+      </c>
+      <c r="B218" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>35063</v>
+      </c>
+      <c r="B219" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>35064</v>
+      </c>
+      <c r="B220" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>35065</v>
+      </c>
+      <c r="B221" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>35066</v>
+      </c>
+      <c r="B222" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>35067</v>
+      </c>
+      <c r="B223" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>35068</v>
+      </c>
+      <c r="B224" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>35069</v>
+      </c>
+      <c r="B225" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>35070</v>
+      </c>
+      <c r="B226" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>35071</v>
+      </c>
+      <c r="B227" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>35072</v>
+      </c>
+      <c r="B228" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>35073</v>
+      </c>
+      <c r="B229" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>35074</v>
+      </c>
+      <c r="B230" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>35075</v>
+      </c>
+      <c r="B231" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>35076</v>
+      </c>
+      <c r="B232" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>35077</v>
+      </c>
+      <c r="B233" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>35078</v>
+      </c>
+      <c r="B234" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>35079</v>
+      </c>
+      <c r="B235" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>35080</v>
+      </c>
+      <c r="B236" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>35081</v>
+      </c>
+      <c r="B237" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>35082</v>
+      </c>
+      <c r="B238" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>35083</v>
+      </c>
+      <c r="B239" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>35084</v>
+      </c>
+      <c r="B240" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>35085</v>
+      </c>
+      <c r="B241" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>35086</v>
+      </c>
+      <c r="B242" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>35087</v>
+      </c>
+      <c r="B243" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>35088</v>
+      </c>
+      <c r="B244" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>35089</v>
+      </c>
+      <c r="B245" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B246" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>35091</v>
+      </c>
+      <c r="B247" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>35092</v>
+      </c>
+      <c r="B248" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>35093</v>
+      </c>
+      <c r="B249" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>35094</v>
+      </c>
+      <c r="B250" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>35095</v>
+      </c>
+      <c r="B251" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>35096</v>
+      </c>
+      <c r="B252" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>35097</v>
+      </c>
+      <c r="B253" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>35098</v>
+      </c>
+      <c r="B254" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>35099</v>
+      </c>
+      <c r="B255" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>35100</v>
+      </c>
+      <c r="B256" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>35101</v>
+      </c>
+      <c r="B257" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>35102</v>
+      </c>
+      <c r="B258" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>35103</v>
+      </c>
+      <c r="B259" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>35104</v>
+      </c>
+      <c r="B260" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>35105</v>
+      </c>
+      <c r="B261" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>35106</v>
+      </c>
+      <c r="B262" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>35107</v>
+      </c>
+      <c r="B263" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>35108</v>
+      </c>
+      <c r="B264" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>35109</v>
+      </c>
+      <c r="B265" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>35110</v>
+      </c>
+      <c r="B266" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>35111</v>
+      </c>
+      <c r="B267" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>35112</v>
+      </c>
+      <c r="B268" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>35113</v>
+      </c>
+      <c r="B269" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>35114</v>
+      </c>
+      <c r="B270" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>35115</v>
+      </c>
+      <c r="B271" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>35116</v>
+      </c>
+      <c r="B272" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>35117</v>
+      </c>
+      <c r="B273" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>35118</v>
+      </c>
+      <c r="B274" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>35119</v>
+      </c>
+      <c r="B275" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>35120</v>
+      </c>
+      <c r="B276" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>35121</v>
+      </c>
+      <c r="B277" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>35122</v>
+      </c>
+      <c r="B278" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>35123</v>
+      </c>
+      <c r="B279" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>35124</v>
+      </c>
+      <c r="B280" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>35125</v>
+      </c>
+      <c r="B281" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>35126</v>
+      </c>
+      <c r="B282" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>35127</v>
+      </c>
+      <c r="B283" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>35128</v>
+      </c>
+      <c r="B284" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>35129</v>
+      </c>
+      <c r="B285" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>35130</v>
+      </c>
+      <c r="B286" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>35131</v>
+      </c>
+      <c r="B287" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>35132</v>
+      </c>
+      <c r="B288" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>35133</v>
+      </c>
+      <c r="B289" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>35134</v>
+      </c>
+      <c r="B290" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>35135</v>
+      </c>
+      <c r="B291" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>35136</v>
+      </c>
+      <c r="B292" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>35137</v>
+      </c>
+      <c r="B293" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>35138</v>
+      </c>
+      <c r="B294" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B295" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>35140</v>
+      </c>
+      <c r="B296" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>35141</v>
+      </c>
+      <c r="B297" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="n">
+        <v>35142</v>
+      </c>
+      <c r="B298" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="n">
+        <v>35143</v>
+      </c>
+      <c r="B299" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="n">
+        <v>35144</v>
+      </c>
+      <c r="B300" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="n">
+        <v>35145</v>
+      </c>
+      <c r="B301" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="n">
+        <v>35146</v>
+      </c>
+      <c r="B302" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="n">
+        <v>35147</v>
+      </c>
+      <c r="B303" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="n">
+        <v>35148</v>
+      </c>
+      <c r="B304" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="n">
+        <v>35149</v>
+      </c>
+      <c r="B305" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="n">
+        <v>35150</v>
+      </c>
+      <c r="B306" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="n">
+        <v>35151</v>
+      </c>
+      <c r="B307" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="n">
+        <v>35152</v>
+      </c>
+      <c r="B308" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="n">
+        <v>35153</v>
+      </c>
+      <c r="B309" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>35154</v>
+      </c>
+      <c r="B310" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="n">
+        <v>35155</v>
+      </c>
+      <c r="B311" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="n">
+        <v>35156</v>
+      </c>
+      <c r="B312" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
+        <v>35157</v>
+      </c>
+      <c r="B313" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="n">
+        <v>35158</v>
+      </c>
+      <c r="B314" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>35159</v>
+      </c>
+      <c r="B315" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="n">
+        <v>35160</v>
+      </c>
+      <c r="B316" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="n">
+        <v>35161</v>
+      </c>
+      <c r="B317" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="n">
+        <v>35162</v>
+      </c>
+      <c r="B318" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="n">
+        <v>35163</v>
+      </c>
+      <c r="B319" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="n">
+        <v>35164</v>
+      </c>
+      <c r="B320" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="n">
+        <v>35165</v>
+      </c>
+      <c r="B321" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="n">
+        <v>35166</v>
+      </c>
+      <c r="B322" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="n">
+        <v>35167</v>
+      </c>
+      <c r="B323" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="n">
+        <v>35168</v>
+      </c>
+      <c r="B324" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="n">
+        <v>35169</v>
+      </c>
+      <c r="B325" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="n">
+        <v>35170</v>
+      </c>
+      <c r="B326" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="n">
+        <v>35171</v>
+      </c>
+      <c r="B327" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="n">
+        <v>35172</v>
+      </c>
+      <c r="B328" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="n">
+        <v>35173</v>
+      </c>
+      <c r="B329" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="n">
+        <v>35174</v>
+      </c>
+      <c r="B330" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="n">
+        <v>35175</v>
+      </c>
+      <c r="B331" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>35176</v>
+      </c>
+      <c r="B332" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
+        <v>35177</v>
+      </c>
+      <c r="B333" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="n">
+        <v>35178</v>
+      </c>
+      <c r="B334" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="n">
+        <v>35179</v>
+      </c>
+      <c r="B335" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="n">
+        <v>35180</v>
+      </c>
+      <c r="B336" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="n">
+        <v>35181</v>
+      </c>
+      <c r="B337" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="n">
+        <v>35182</v>
+      </c>
+      <c r="B338" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="n">
+        <v>35183</v>
+      </c>
+      <c r="B339" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="n">
+        <v>35184</v>
+      </c>
+      <c r="B340" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="n">
+        <v>35185</v>
+      </c>
+      <c r="B341" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="n">
+        <v>35186</v>
+      </c>
+      <c r="B342" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="n">
+        <v>35187</v>
+      </c>
+      <c r="B343" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="n">
+        <v>35188</v>
+      </c>
+      <c r="B344" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B345" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B346" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="n">
+        <v>35191</v>
+      </c>
+      <c r="B347" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="n">
+        <v>35192</v>
+      </c>
+      <c r="B348" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="n">
+        <v>35193</v>
+      </c>
+      <c r="B349" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="n">
+        <v>35194</v>
+      </c>
+      <c r="B350" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="n">
+        <v>35195</v>
+      </c>
+      <c r="B351" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="n">
+        <v>35196</v>
+      </c>
+      <c r="B352" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="n">
+        <v>35197</v>
+      </c>
+      <c r="B353" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="n">
+        <v>35198</v>
+      </c>
+      <c r="B354" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="n">
+        <v>35199</v>
+      </c>
+      <c r="B355" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="n">
+        <v>35200</v>
+      </c>
+      <c r="B356" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="n">
+        <v>35201</v>
+      </c>
+      <c r="B357" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="n">
+        <v>35202</v>
+      </c>
+      <c r="B358" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="n">
+        <v>35203</v>
+      </c>
+      <c r="B359" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="n">
+        <v>35204</v>
+      </c>
+      <c r="B360" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="n">
+        <v>35205</v>
+      </c>
+      <c r="B361" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="n">
+        <v>35206</v>
+      </c>
+      <c r="B362" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="n">
+        <v>35207</v>
+      </c>
+      <c r="B363" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="n">
+        <v>35208</v>
+      </c>
+      <c r="B364" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="n">
+        <v>35209</v>
+      </c>
+      <c r="B365" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="n">
+        <v>35210</v>
+      </c>
+      <c r="B366" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="n">
+        <v>35211</v>
+      </c>
+      <c r="B367" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="n">
+        <v>35212</v>
+      </c>
+      <c r="B368" t="n">
+        <v>20.5</v>
       </c>
     </row>
   </sheetData>
